--- a/MenuCreator/bin/Debug/PrintMenu.xlsx
+++ b/MenuCreator/bin/Debug/PrintMenu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Server\File_Server\Menus\MenuCreator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Desktop\MenuCreator\MenuCreator\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797EEFA4-127F-453C-83DF-DB7DF2366416}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3496B927-B2D2-42BA-8825-AFF9E8CA7C9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product List" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,328 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+  <si>
+    <t>1. Happy Cabbage Farms</t>
+  </si>
+  <si>
+    <t>A: Blue Magoo</t>
+  </si>
+  <si>
+    <t>B: Oregon Diesel</t>
+  </si>
+  <si>
+    <t>C: Humble Pie</t>
+  </si>
+  <si>
+    <t>D: Golden Ticket</t>
+  </si>
+  <si>
+    <t>E: Thug Life</t>
+  </si>
+  <si>
+    <t>F: Sour Banana Sherbert</t>
+  </si>
+  <si>
+    <t>2. Sticks</t>
+  </si>
+  <si>
+    <t>A: Wifi OG</t>
+  </si>
+  <si>
+    <t>B: Ghost Train Haze</t>
+  </si>
+  <si>
+    <t>C: Swamp Gas</t>
+  </si>
+  <si>
+    <t>D: Bubba Dawg</t>
+  </si>
+  <si>
+    <t>E: Louise</t>
+  </si>
+  <si>
+    <t>F: Pineapple Express</t>
+  </si>
+  <si>
+    <t>G: Lavender</t>
+  </si>
+  <si>
+    <t>H: Agent Orange</t>
+  </si>
+  <si>
+    <t>I: Bruce Banner #3</t>
+  </si>
+  <si>
+    <t>J: Mad Max #8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K: Skunkberry </t>
+  </si>
+  <si>
+    <t>3.  Itchy Ribs</t>
+  </si>
+  <si>
+    <t>2 Pack</t>
+  </si>
+  <si>
+    <t>C: Itchy's Choice</t>
+  </si>
+  <si>
+    <t>D: Gunpowder</t>
+  </si>
+  <si>
+    <t>E: Baked &amp; fried</t>
+  </si>
+  <si>
+    <t>F: GSD</t>
+  </si>
+  <si>
+    <t>3 Pack</t>
+  </si>
+  <si>
+    <t>G. Itch'y Choice</t>
+  </si>
+  <si>
+    <t>H. Baked &amp; Fried</t>
+  </si>
+  <si>
+    <t>L. GSD</t>
+  </si>
+  <si>
+    <t>4: Sugar Tree Farms</t>
+  </si>
+  <si>
+    <t>A. Cookies &amp; Cream</t>
+  </si>
+  <si>
+    <t>B: Forbidden Fruit</t>
+  </si>
+  <si>
+    <t>C. Kosher Kush</t>
+  </si>
+  <si>
+    <t>D: White Walker</t>
+  </si>
+  <si>
+    <t>E: Lemon Banana Sherbet</t>
+  </si>
+  <si>
+    <t>F: Blue Frost</t>
+  </si>
+  <si>
+    <t>G: Strawberry Fields</t>
+  </si>
+  <si>
+    <t>H: Chocolate Hashberry</t>
+  </si>
+  <si>
+    <t>Pre Rolled Joints</t>
+  </si>
+  <si>
+    <t>THC</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>5. Graves</t>
+  </si>
+  <si>
+    <t>B: White Widow Bomb</t>
+  </si>
+  <si>
+    <t>D: Berry Bomb</t>
+  </si>
+  <si>
+    <t>6. Leap Farms</t>
+  </si>
+  <si>
+    <t>C: Island Sweet Skunk</t>
+  </si>
+  <si>
+    <t>E: Bones OG Kush</t>
+  </si>
+  <si>
+    <t>F: Blue City Diesel</t>
+  </si>
+  <si>
+    <t>G: Serious Blue 2pk</t>
+  </si>
+  <si>
+    <t>H: Lemon Kush 2pk</t>
+  </si>
+  <si>
+    <t>I: Stary Night 2pk</t>
+  </si>
+  <si>
+    <t>K: Blue City Diesel 2pk</t>
+  </si>
+  <si>
+    <t>7. Lit Cannabis</t>
+  </si>
+  <si>
+    <t>A: Phantom Cookie</t>
+  </si>
+  <si>
+    <t>B: Fire OG</t>
+  </si>
+  <si>
+    <t>C: Cronuts</t>
+  </si>
+  <si>
+    <t>D: Blueberry Cookies</t>
+  </si>
+  <si>
+    <t>E: Orange Skunk</t>
+  </si>
+  <si>
+    <t>F: Dead Star</t>
+  </si>
+  <si>
+    <t>G: Blue Dream</t>
+  </si>
+  <si>
+    <t>8. Lady Jays</t>
+  </si>
+  <si>
+    <t>A: Blackberry</t>
+  </si>
+  <si>
+    <t>B: Northern Lights</t>
+  </si>
+  <si>
+    <t>C: Rude Boi</t>
+  </si>
+  <si>
+    <t>11. The Grow</t>
+  </si>
+  <si>
+    <t>D: Rolex OG</t>
+  </si>
+  <si>
+    <t>12. Trout</t>
+  </si>
+  <si>
+    <t>B: Super Glue</t>
+  </si>
+  <si>
+    <t>D: Lemon Skunk</t>
+  </si>
+  <si>
+    <t>13. Karma Originals</t>
+  </si>
+  <si>
+    <t>A: Agent Orange Cookies</t>
+  </si>
+  <si>
+    <t>B: Ak-47 DS</t>
+  </si>
+  <si>
+    <t>C: Cindyland DS</t>
+  </si>
+  <si>
+    <t>D: White Cookies MD</t>
+  </si>
+  <si>
+    <t>E: 9lb Hammer DS</t>
+  </si>
+  <si>
+    <t>G: Sour Diesel Pearls</t>
+  </si>
+  <si>
+    <t>14. Yerba Buena</t>
+  </si>
+  <si>
+    <t>A: Corazon</t>
+  </si>
+  <si>
+    <t>B: CBD Kush</t>
+  </si>
+  <si>
+    <t>15. Emerald Fields</t>
+  </si>
+  <si>
+    <t>A: Chocolate Haze</t>
+  </si>
+  <si>
+    <t>B: OG Cookies</t>
+  </si>
+  <si>
+    <t>C: Obama Kush 10pk</t>
+  </si>
+  <si>
+    <t>D: Big Shark Bait</t>
+  </si>
+  <si>
+    <t>E: Blue Dream 10pk</t>
+  </si>
+  <si>
+    <t>F: OG Cookies 5pk</t>
+  </si>
+  <si>
+    <t>G: Blue Dream 5pk</t>
+  </si>
+  <si>
+    <t>H: Bruce Banner 5pk</t>
+  </si>
+  <si>
+    <t>I: Pink Lavender 10pk</t>
+  </si>
+  <si>
+    <t>16. Meteorite</t>
+  </si>
+  <si>
+    <t>A: Green Queen</t>
+  </si>
+  <si>
+    <t>17. Rebel Spirit</t>
+  </si>
+  <si>
+    <t>A: Golden Lemons 10pk</t>
+  </si>
+  <si>
+    <t>B: Ultra Tangie/501st OG</t>
+  </si>
+  <si>
+    <t>18. Bomb Squad : King Palm</t>
+  </si>
+  <si>
+    <t>A: Full Boat</t>
+  </si>
+  <si>
+    <t>B: Cookies &amp; Cream</t>
+  </si>
+  <si>
+    <t>C: Lemonade</t>
+  </si>
+  <si>
+    <t>19. Epoch Farms</t>
+  </si>
+  <si>
+    <t>A: Sour Patch kids</t>
+  </si>
+  <si>
+    <t>B: Venom OG</t>
+  </si>
+  <si>
+    <t>20. Smith Rock Cannabis</t>
+  </si>
+  <si>
+    <t>A: Gorilla Glue #4</t>
+  </si>
+  <si>
+    <t>B: Dutch Treat #5</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +472,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -502,8 +833,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -859,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -872,7 +1205,425 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>